--- a/biology/Médecine/Auguste_Bérard/Auguste_Bérard.xlsx
+++ b/biology/Médecine/Auguste_Bérard/Auguste_Bérard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_B%C3%A9rard</t>
+          <t>Auguste_Bérard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Bérard, né à Varrains (Maine-et-Loire) le 1er août 1802 et mort à Paris le 14 octobre 1846, est un chirurgien français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_B%C3%A9rard</t>
+          <t>Auguste_Bérard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un médecin militaire[1], il fut professeur de clinique chirurgicale à la Faculté de Paris et, à partir de 1817, membre du Conseil d'Hygiène publique et de Salubrité. Il entreprit avec Charles Denonvilliers un Compendium de chirurgie pratique qui est resté classique. Il est élu membre de l'Académie de médecine en 1838[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un médecin militaire, il fut professeur de clinique chirurgicale à la Faculté de Paris et, à partir de 1817, membre du Conseil d'Hygiène publique et de Salubrité. Il entreprit avec Charles Denonvilliers un Compendium de chirurgie pratique qui est resté classique. Il est élu membre de l'Académie de médecine en 1838
 Son frère est le médecin Pierre Honoré Bérard.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_B%C3%A9rard</t>
+          <t>Auguste_Bérard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lois d'ossification de Bérard[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lois d'ossification de Bérard.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auguste_B%C3%A9rard</t>
+          <t>Auguste_Bérard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) De corporibus extraneis in tractu aereo admissis, typis Hippolyti Tilliard, 1830.(Texte intégral.)
 Des divers engorgements du testicule, Locquin (Paris), 1834.(Texte intégral.)
